--- a/bots/crawl_ch/output/bread_coop_2023-01-18.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-18.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3707,28 +3707,28 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6823900</t>
+          <t>6638080</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Betty Bossi Blätterteig ausgewallt rund</t>
+          <t>Prix Garantie Milchbrötli 12 Stück</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-blaetterteig-ausgewallt-rund/p/6823900</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-milchbroetli-12-stueck/p/6638080</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
         <v>4.5</v>
@@ -3740,12 +3740,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3765,43 +3765,39 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Betty Bossi Blätterteig ausgewallt rund 1.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Milchbrötli 12 Stück 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6638080</t>
+          <t>6823900</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Prix Garantie Milchbrötli 12 Stück</t>
+          <t>Betty Bossi Blätterteig ausgewallt rund</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-milchbroetli-12-stueck/p/6638080</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-blaetterteig-ausgewallt-rund/p/6823900</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
         <v>4.5</v>
@@ -3813,12 +3809,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3828,7 +3824,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3838,18 +3834,22 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Prix Garantie Milchbrötli 12 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+          <t>Betty Bossi Blätterteig ausgewallt rund 1.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -8851,31 +8851,31 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4522047</t>
+          <t>6820606</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820606</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8884,12 +8884,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8909,60 +8909,60 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3041212</t>
+          <t>4522047</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-classica-original-rund-ausgewallt-24cm/p/3041212</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E120" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8982,12 +8982,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8997,45 +8997,45 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6820606</t>
+          <t>3041212</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820606</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-classica-original-rund-ausgewallt-24cm/p/3041212</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E121" t="n">
         <v>4.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9055,22 +9055,22 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse 2.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11054,31 +11054,31 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6638578</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prix Garantie Pains au chocolat 8 Stück</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-pains-au-chocolat-8-stueck/p/6638578</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E150" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -11087,12 +11087,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.72/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11112,42 +11112,46 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Prix Garantie Pains au chocolat 8 Stück 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr"/>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>6638578</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>Prix Garantie Pains au chocolat 8 Stück</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-pains-au-chocolat-8-stueck/p/6638578</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -11156,12 +11160,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>0.72/100g</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11171,7 +11175,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11181,22 +11185,18 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Pains au chocolat 8 Stück 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12470,7 +12470,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13752,7 +13752,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16239,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16377,31 +16377,31 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>6825791</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Prix Garantie Proteinbrot</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E225" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16425,7 +16425,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16435,42 +16435,46 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N225" t="inlineStr"/>
+          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6825791</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E226" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -16484,7 +16488,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16494,7 +16498,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16504,22 +16508,18 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17424,7 +17424,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17566,7 +17566,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17856,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18134,7 +18134,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18828,7 +18828,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19185,7 +19185,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19258,7 +19258,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19613,45 +19613,45 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19671,60 +19671,60 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19734,7 +19734,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19744,22 +19744,22 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19832,7 +19832,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20603,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21037,7 +21037,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23139,7 +23139,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23208,7 +23208,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23415,45 +23415,45 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23473,60 +23473,60 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E326" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23546,56 +23546,60 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E327" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23605,7 +23609,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23615,22 +23619,18 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24878,7 +24878,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25154,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25223,7 +25223,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25292,7 +25292,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25359,7 +25359,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25564,7 +25564,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25633,7 +25633,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25702,7 +25702,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25844,7 +25844,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25917,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26132,7 +26132,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26201,7 +26201,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26270,7 +26270,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26343,7 +26343,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26416,7 +26416,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26483,7 +26483,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26627,7 +26627,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26769,7 +26769,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27205,7 +27205,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27274,7 +27274,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27347,7 +27347,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27416,7 +27416,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27485,7 +27485,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27552,7 +27552,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27621,7 +27621,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27694,7 +27694,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27897,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28035,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -28307,7 +28307,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-18 06:49:24</t>
+          <t>2023-01-18 12:56:13</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-18.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-18.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3063,10 +3063,14 @@
           <t>Dar-Vida Cracker Nature Family Pack 4.10 Schweizer Franken</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3139,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3496,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3565,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3784,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3853,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3999,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4072,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4141,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4506,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4648,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5585,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5800,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5873,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5942,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6372,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6441,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6583,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6863,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7301,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7374,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7447,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7520,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7589,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7662,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7731,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7804,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7869,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7938,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8007,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8070,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Betty Bossi Bio Frischback Rustico Buttergipfel 3.50 Schweizer Franken</t>
+          <t>Betty Bossi Bio Frischback Rustico Buttergipfel - Online kein Bestand 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8076,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8149,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8218,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8291,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8360,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8433,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8502,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8575,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8644,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8713,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8786,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8859,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8928,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -8997,7 +9001,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9074,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9147,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9220,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9289,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9504,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9573,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9642,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9715,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9788,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9857,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9930,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9999,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10072,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10145,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10218,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10283,7 +10287,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10356,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10425,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10498,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10563,7 +10567,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10632,7 +10636,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10705,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10778,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10847,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10916,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10989,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11058,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11131,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11200,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11269,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11342,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11415,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11484,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11695,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11768,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11837,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11906,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11975,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12190,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12336,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12405,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12470,7 +12474,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12762,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12831,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12900,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12973,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13046,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13115,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13184,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13257,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13326,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13399,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13472,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13545,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13614,7 +13618,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13691,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13760,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13829,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13898,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13967,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14036,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14109,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14178,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14247,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14320,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14389,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14462,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14535,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14604,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14746,32 +14750,32 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6323456</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Prix Garantie Croissants 6 Stück</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-croissants-6-stueck/p/6323456</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D202" t="n">
+        <v>6</v>
+      </c>
+      <c r="E202" t="n">
         <v>3</v>
       </c>
-      <c r="E202" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -14779,12 +14783,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.81/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14794,7 +14798,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14804,42 +14808,46 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Prix Garantie Croissants 6 Stück 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N202" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>6323456</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Prix Garantie Croissants 6 Stück</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-croissants-6-stueck/p/6323456</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -14848,12 +14856,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>0.81/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14863,7 +14871,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14873,22 +14881,18 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Croissants 6 Stück - Online kein Bestand 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14965,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15034,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15107,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15176,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15249,7 +15253,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15322,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15387,45 +15391,45 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>3.75/100g</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15435,7 +15439,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15445,56 +15449,60 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N211" t="inlineStr"/>
+          <t>Cocktail Blinis 20 Stück 6.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15504,7 +15512,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15514,56 +15522,56 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E213" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>3.75/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15573,7 +15581,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15583,22 +15591,18 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 6.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15744,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15817,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15886,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15959,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16032,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16101,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16170,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16239,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16312,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16381,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16454,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16523,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16592,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16665,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16734,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16807,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16876,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16945,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17014,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17083,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17152,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17214,10 +17218,14 @@
           <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17294,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17363,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17424,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17566,7 +17574,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17647,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17720,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17783,7 +17791,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17864,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17933,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -17998,7 +18006,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18067,7 +18075,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18144,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18203,45 +18211,45 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18251,7 +18259,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18266,51 +18274,51 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18320,7 +18328,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18335,13 +18343,13 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+          <t>Panettone 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18418,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18483,45 +18491,45 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>4010866</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E255" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18531,7 +18539,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18541,56 +18549,56 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D256" t="n">
+        <v>13</v>
+      </c>
+      <c r="E256" t="n">
         <v>5</v>
       </c>
-      <c r="E256" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18600,7 +18608,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18615,51 +18623,51 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+          <t>Pandorino 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>4010866</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E257" t="n">
         <v>4.5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18669,7 +18677,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18679,18 +18687,18 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18767,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18828,7 +18836,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18897,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -18970,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19185,7 +19193,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19258,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19337,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19402,7 +19410,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19479,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19540,45 +19548,45 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19588,7 +19596,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19598,60 +19606,60 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19661,7 +19669,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19671,22 +19679,22 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Kastanie 4.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19759,7 +19767,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19832,7 +19840,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19909,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -19970,7 +19978,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20043,7 +20051,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20112,7 +20120,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20185,45 +20193,45 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20233,7 +20241,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20243,56 +20251,56 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E280" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20302,7 +20310,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20312,18 +20320,18 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20396,7 +20404,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20473,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20534,7 +20542,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20615,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20684,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20757,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20830,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20895,7 +20903,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20972,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21037,7 +21045,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21106,7 +21114,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21181,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21248,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21321,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21394,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21467,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21528,24 +21536,24 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -21556,17 +21564,17 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21576,7 +21584,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21586,35 +21594,35 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -21625,17 +21633,17 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21645,7 +21653,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21655,56 +21663,56 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E300" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21714,7 +21722,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21724,56 +21732,60 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E301" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21783,7 +21795,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21798,51 +21810,51 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E302" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21852,7 +21864,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21862,22 +21874,18 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21954,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22023,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22092,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22165,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22234,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22295,24 +22303,24 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -22323,17 +22331,17 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22343,7 +22351,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22353,39 +22361,35 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -22396,17 +22400,17 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22416,7 +22420,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22426,18 +22430,22 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22514,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22583,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22652,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22721,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22790,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22845,13 +22853,13 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 20% Aktion 3.75 Schweizer Franken statt 4.70 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot - Online kein Bestand 20% Aktion 3.75 Schweizer Franken statt 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -22993,7 +23001,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23070,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23143,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23208,7 +23216,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23285,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23354,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23412,10 +23420,14 @@
           <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23500,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23573,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23642,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23711,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23780,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23849,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23918,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23987,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24056,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24125,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24194,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24263,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24332,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24401,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24470,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24539,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24594,45 +24606,45 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E342" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24642,7 +24654,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24652,56 +24664,60 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24711,7 +24727,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24721,22 +24737,18 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24817,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24878,7 +24890,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -24945,35 +24957,33 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
-        </is>
-      </c>
-      <c r="D347" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -24983,7 +24993,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24993,7 +25003,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25003,44 +25013,50 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>10</v>
+      </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -25050,7 +25066,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25060,7 +25076,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25070,22 +25086,18 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25166,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25233,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25302,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25359,7 +25371,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25440,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25509,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25564,7 +25576,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25637,7 +25649,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25706,7 +25718,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25787,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25860,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25917,7 +25929,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -25990,7 +26002,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26075,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26132,7 +26144,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26201,7 +26213,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26270,7 +26282,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26343,7 +26355,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26410,7 +26422,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26483,7 +26495,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26568,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26627,7 +26639,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26700,7 +26712,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26785,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26842,7 +26854,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26915,7 +26927,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -26988,7 +27000,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27061,7 +27073,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27134,7 +27146,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27205,7 +27217,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27278,7 +27290,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27347,7 +27359,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27416,7 +27428,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27485,7 +27497,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27552,7 +27564,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27625,7 +27637,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27694,7 +27706,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27773,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27842,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27909,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27978,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28047,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28116,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28185,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28252,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -28307,7 +28319,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28388,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-18 16:49:38</t>
+          <t>2023-01-18 20:49:27</t>
         </is>
       </c>
     </row>
